--- a/categories.xlsx
+++ b/categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\code\go\my-account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE93AB5-E182-44A1-88D5-8203E48AD62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F3D58-5895-48AD-B758-A2C51816C043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16455" yWindow="690" windowWidth="12345" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,10 +375,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
